--- a/templates/2EXT05_Imaging/2EXT05_Imaging.xlsx
+++ b/templates/2EXT05_Imaging/2EXT05_Imaging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT05_Imaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622F07E6-0A2F-498A-AF3A-13C46B6634FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A37FB-297C-4BBD-91CD-068485E40B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="397">
   <si>
     <t>Source Name</t>
   </si>
@@ -1053,13 +1053,208 @@
   </si>
   <si>
     <t>if you used 'pass/fail' in the Quality Control column and want to give more information then enter it here</t>
+  </si>
+  <si>
+    <t>remove leaflets form shoot</t>
+  </si>
+  <si>
+    <t>shoot without leaves</t>
+  </si>
+  <si>
+    <t>protein localization</t>
+  </si>
+  <si>
+    <t>compound treatment</t>
+  </si>
+  <si>
+    <t>Nup107-aa33-51 antibody</t>
+  </si>
+  <si>
+    <t>DAPI</t>
+  </si>
+  <si>
+    <t>DAPI:nuclei;TRITC:HA_Flag tagged protein</t>
+  </si>
+  <si>
+    <t>ENSG00000117399</t>
+  </si>
+  <si>
+    <t>RuBisCo</t>
+  </si>
+  <si>
+    <t>GRCh37, Ensembl release 61, Feb 2011</t>
+  </si>
+  <si>
+    <t>Sigma-Aldrich, microscope plain, size 25 mm × 75 mm</t>
+  </si>
+  <si>
+    <t>BRAND® L × W 18 mm × 18 mm, square;  Sigma-Aldrich</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>50% v/v ethanol, 3.7% v/v formaldehyde, 5% v/v acetic acid</t>
+  </si>
+  <si>
+    <t>nailpolish</t>
+  </si>
+  <si>
+    <t>gene deletion screen</t>
+  </si>
+  <si>
+    <t>primary screen</t>
+  </si>
+  <si>
+    <t>haploid deletion library</t>
+  </si>
+  <si>
+    <t>Ambion</t>
+  </si>
+  <si>
+    <t>Bioneer haploid deletion library v.2 modified to generate a GFP-tubulin expressing library (Dixon et al., 2008).</t>
+  </si>
+  <si>
+    <t>JL_120731_S6A</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>s2748</t>
+  </si>
+  <si>
+    <t>CGAAAUGACUAUUACCUGATT</t>
+  </si>
+  <si>
+    <t>UCAGGUAAUAGUCAUUUCGGA</t>
+  </si>
+  <si>
+    <t>DL-alpha-Methyl-p-tyrosine</t>
+  </si>
+  <si>
+    <t>Neurotransmission</t>
+  </si>
+  <si>
+    <t>10 nanogram per milliliter</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>empty well</t>
+  </si>
+  <si>
+    <t>checks for transfection</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>extract archargonia from gametophyte</t>
+  </si>
+  <si>
+    <t>high content screen</t>
+  </si>
+  <si>
+    <t>antibody target</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 546 conjugated secondary antibody</t>
+  </si>
+  <si>
+    <t>GFP:endogenous alpha tubulin 2;Cascade blue:growth media</t>
+  </si>
+  <si>
+    <t>compound screen</t>
+  </si>
+  <si>
+    <t>secondary screen</t>
+  </si>
+  <si>
+    <t>compound library</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>LOPAC-1280 compound library</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>PSORS1C3</t>
+  </si>
+  <si>
+    <t>s20068</t>
+  </si>
+  <si>
+    <t>CGGAAGCAGUUCCAACUUUtt</t>
+  </si>
+  <si>
+    <t>AAAGUUGGAACUGCUUCCGtt</t>
+  </si>
+  <si>
+    <t>N-Acetyl-L-Cysteine</t>
+  </si>
+  <si>
+    <t>Glutamate</t>
+  </si>
+  <si>
+    <t>positive control</t>
+  </si>
+  <si>
+    <t>gives strong phenotype</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>time-lapse imaging</t>
+  </si>
+  <si>
+    <t>RNAi screen</t>
+  </si>
+  <si>
+    <t>validation screen</t>
+  </si>
+  <si>
+    <t>siRNA library</t>
+  </si>
+  <si>
+    <t>6-Methoxy-1,2,3,4-tetrahydro-9H-pyrido[3,4b] indole</t>
+  </si>
+  <si>
+    <t>negative control</t>
+  </si>
+  <si>
+    <t>wild type</t>
+  </si>
+  <si>
+    <t>no cells</t>
+  </si>
+  <si>
+    <t>image cytometry</t>
+  </si>
+  <si>
+    <t>protein screen</t>
+  </si>
+  <si>
+    <t>HA-Flag protein fusion library</t>
+  </si>
+  <si>
+    <t>non-targeting siRNA</t>
+  </si>
+  <si>
+    <t>no treatment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,12 +1269,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1290,8 +1479,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A44DFED-6FA7-46AF-B778-EFE22193F0A0}" name="annotationTableFuzzyDodo24" displayName="annotationTableFuzzyDodo24" ref="A1:DL2" totalsRowShown="0">
-  <autoFilter ref="A1:DL2" xr:uid="{7A44DFED-6FA7-46AF-B778-EFE22193F0A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A44DFED-6FA7-46AF-B778-EFE22193F0A0}" name="annotationTableFuzzyDodo24" displayName="annotationTableFuzzyDodo24" ref="A1:DL6" totalsRowShown="0">
+  <autoFilter ref="A1:DL6" xr:uid="{7A44DFED-6FA7-46AF-B778-EFE22193F0A0}"/>
   <tableColumns count="116">
     <tableColumn id="1" xr3:uid="{DE9BEB74-08E0-478B-A4DE-942BC7303645}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{53472B8D-A3E1-44AA-9929-726B4F112D5D}" name="Parameter [microscopy sample preparation]"/>
@@ -1691,6 +1880,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="620" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="627" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -1704,9 +1896,19 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{6DB614FB-D0CA-4914-8622-517D9C5F9527}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DL1"/>
+  <dimension ref="A1:DL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1714,8 +1916,8 @@
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
@@ -2180,6 +2382,235 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" t="s">
+        <v>334</v>
+      </c>
+      <c r="N2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T2" t="s">
+        <v>337</v>
+      </c>
+      <c r="W2" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>347</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>348</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>349</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>350</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>351</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>352</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>354</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>355</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>356</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>341</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>357</v>
+      </c>
+      <c r="CK2">
+        <v>78875</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>358</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>359</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>360</v>
+      </c>
+      <c r="CW2">
+        <v>9994</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>361</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>362</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" t="s">
+        <v>365</v>
+      </c>
+      <c r="N3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>367</v>
+      </c>
+      <c r="W3" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z3">
+        <v>84240</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>369</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>370</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>371</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>372</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM3">
+        <v>1921</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>374</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>375</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>376</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>377</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>379</v>
+      </c>
+      <c r="CK3">
+        <v>78955</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CW3">
+        <v>168</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>381</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>382</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>387</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>388</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>389</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>390</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>392</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>393</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>394</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="DC6" t="s">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2407,7 +2838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4249ADA-E892-40D4-A1B2-AA62559F2C3F}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4765,6 +5198,50 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
+  <SwateTable Table="annotationTableFuzzyDodo24">
+    <TableValidation DateTime="2021-12-13 17:28" SwateVersion="0.5.1" TableName="annotationTableFuzzyDodo24" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [microscopy sample preparation]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [prepared organism part]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [Microscopy study type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [experiment name]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [generic experimental condition]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [Antibody]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="19" ColumnHeader="Parameter [staining]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="22" ColumnHeader="Parameter [channel]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="25" ColumnHeader="Parameter [Gene Identifier]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="28" ColumnHeader="Parameter [gene name]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="31" ColumnHeader="Parameter [Genome reference sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="34" ColumnHeader="Parameter [microscope slide]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="37" ColumnHeader="Parameter [Cover Slip]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="40" ColumnHeader="Parameter [liquid layer]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="43" ColumnHeader="Parameter [material fixation]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="46" ColumnHeader="Parameter [Cover slip preparation (procedure)]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="49" ColumnHeader="Parameter [Screen Technology Type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="52" ColumnHeader="Parameter [high content screening stage]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="55" ColumnHeader="Parameter [screening library]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="58" ColumnHeader="Parameter [Library Version]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="61" ColumnHeader="Parameter [manufacturer]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="64" ColumnHeader="Parameter [microtiter plate]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="67" ColumnHeader="Parameter [Well]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="70" ColumnHeader="Parameter [Well Number]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="73" ColumnHeader="Parameter [siRNA identifier]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="76" ColumnHeader="Parameter [Sense Sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="79" ColumnHeader="Parameter [Antisense Sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="82" ColumnHeader="Parameter [reagent design genome reference version]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="85" ColumnHeader="Parameter [Compound name]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="88" ColumnHeader="Parameter [Compound identifier]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="91" ColumnHeader="Parameter [Compound class]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="94" ColumnHeader="Parameter [dose]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="97" ColumnHeader="Parameter [time]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="100" ColumnHeader="Parameter [ORF identifier]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="103" ColumnHeader="Parameter [Control Type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="106" ColumnHeader="Parameter [Control specification]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="109" ColumnHeader="Parameter [Quality Control]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="112" ColumnHeader="Parameter [Quality Control Comments]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="115" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
   <SwateTable Table="">
     <TableValidation DateTime="2021-12-09 12:51" SwateVersion="0.5.1" TableName="" Userlist=""/>
   </SwateTable>
@@ -4772,7 +5249,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA761AFC-4BDA-4041-BA15-DCC3FD17B6BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F079B9BF-4DD2-424B-9324-CCD97A2A298B}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/2EXT05_Imaging/2EXT05_Imaging.xlsx
+++ b/templates/2EXT05_Imaging/2EXT05_Imaging.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT05_Imaging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\2EXT05_Imaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A37FB-297C-4BBD-91CD-068485E40B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2038715-B549-4616-AE11-02B0777F3BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT05_Imaging" sheetId="1" r:id="rId1"/>
@@ -44,11 +44,11 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9067AD98-F807-46F1-B65C-78D939534A6A}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=8fbc694a-5adf-4f97-8cd8-3bcedc37c98d</t>
       </text>
     </comment>
@@ -500,9 +500,6 @@
     <t>Chistine</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Imaging extraction</t>
   </si>
   <si>
@@ -1248,6 +1245,9 @@
   </si>
   <si>
     <t>no treatment</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1457,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1877,7 +1877,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="620" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="617" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="627" row="2">
@@ -1910,9 +1910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
@@ -2384,231 +2384,231 @@
     </row>
     <row r="2" spans="1:116" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" t="s">
         <v>332</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>333</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>334</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>335</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>336</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>337</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>338</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>339</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>340</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>341</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>342</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>343</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>344</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>345</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>346</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>347</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>348</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>349</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>350</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>351</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>352</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>353</v>
       </c>
       <c r="BS2">
         <v>1</v>
       </c>
       <c r="BV2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BY2" t="s">
         <v>354</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
         <v>355</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CE2" t="s">
+        <v>340</v>
+      </c>
+      <c r="CH2" t="s">
         <v>356</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>341</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>357</v>
       </c>
       <c r="CK2">
         <v>78875</v>
       </c>
       <c r="CN2" t="s">
+        <v>357</v>
+      </c>
+      <c r="CQ2" t="s">
         <v>358</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CT2" t="s">
         <v>359</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>360</v>
       </c>
       <c r="CW2">
         <v>9994</v>
       </c>
       <c r="CZ2" t="s">
+        <v>360</v>
+      </c>
+      <c r="DC2" t="s">
         <v>361</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DF2" t="s">
         <v>362</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:116" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H3" t="s">
         <v>364</v>
       </c>
-      <c r="H3" t="s">
+      <c r="N3" t="s">
         <v>365</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>366</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="W3" t="s">
         <v>367</v>
-      </c>
-      <c r="W3" t="s">
-        <v>368</v>
       </c>
       <c r="Z3">
         <v>84240</v>
       </c>
       <c r="AX3" t="s">
+        <v>368</v>
+      </c>
+      <c r="BA3" t="s">
         <v>369</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BD3" t="s">
         <v>370</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BG3" t="s">
         <v>371</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BJ3" t="s">
         <v>372</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>373</v>
       </c>
       <c r="BM3">
         <v>1921</v>
       </c>
       <c r="BP3" t="s">
+        <v>373</v>
+      </c>
+      <c r="BS3" t="s">
         <v>374</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BV3" t="s">
         <v>375</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BY3" t="s">
         <v>376</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="CB3" t="s">
         <v>377</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CH3" t="s">
         <v>378</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>379</v>
       </c>
       <c r="CK3">
         <v>78955</v>
       </c>
       <c r="CN3" t="s">
+        <v>379</v>
+      </c>
+      <c r="CW3">
+        <v>168</v>
+      </c>
+      <c r="CZ3" t="s">
         <v>380</v>
       </c>
-      <c r="CW3">
-        <v>168</v>
-      </c>
-      <c r="CZ3" t="s">
+      <c r="DC3" t="s">
         <v>381</v>
       </c>
-      <c r="DC3" t="s">
+      <c r="DF3" t="s">
         <v>382</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:116" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX4" t="s">
         <v>384</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BA4" t="s">
         <v>385</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BD4" t="s">
         <v>386</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="CN4" t="s">
         <v>387</v>
       </c>
-      <c r="CN4" t="s">
+      <c r="CZ4" t="s">
         <v>388</v>
       </c>
-      <c r="CZ4" t="s">
+      <c r="DC4" t="s">
         <v>389</v>
       </c>
-      <c r="DC4" t="s">
+      <c r="DF4" t="s">
         <v>390</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:116" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
+        <v>391</v>
+      </c>
+      <c r="AX5" t="s">
         <v>392</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="BD5" t="s">
         <v>393</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="DC5" t="s">
         <v>394</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:116" x14ac:dyDescent="0.25">
       <c r="DC6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -2623,9 +2623,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFC1F7F-AF17-4F06-B9F6-D890583989BE}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -2645,7 +2647,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2653,7 +2655,7 @@
         <v>118</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>147</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2661,7 +2663,7 @@
         <v>119</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2681,7 +2683,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2695,10 +2697,10 @@
         <v>124</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,10 +2728,10 @@
         <v>128</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2842,7 +2844,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -2860,40 +2862,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2917,20 +2919,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -2941,20 +2943,20 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>190</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -2965,27 +2967,27 @@
         <v>8</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>254</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -2995,27 +2997,27 @@
         <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>256</v>
-      </c>
       <c r="I6" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -3025,25 +3027,25 @@
         <v>14</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -3053,28 +3055,28 @@
         <v>17</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L8" s="13"/>
     </row>
@@ -3083,28 +3085,28 @@
         <v>20</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L9" s="13"/>
     </row>
@@ -3113,25 +3115,25 @@
         <v>23</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -3141,30 +3143,30 @@
         <v>26</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="L11" s="13"/>
     </row>
@@ -3173,30 +3175,30 @@
         <v>29</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>265</v>
-      </c>
       <c r="I12" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L12" s="13"/>
     </row>
@@ -3205,27 +3207,27 @@
         <v>32</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="I13" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -3235,28 +3237,28 @@
         <v>35</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L14" s="13"/>
     </row>
@@ -3265,28 +3267,28 @@
         <v>38</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -3295,28 +3297,28 @@
         <v>41</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -3325,28 +3327,28 @@
         <v>44</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -3355,28 +3357,28 @@
         <v>47</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L18" s="13"/>
     </row>
@@ -3385,28 +3387,28 @@
         <v>50</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J19" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -3415,25 +3417,25 @@
         <v>53</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -3443,25 +3445,25 @@
         <v>56</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -3471,28 +3473,28 @@
         <v>59</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -3501,28 +3503,28 @@
         <v>62</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -3531,28 +3533,28 @@
         <v>65</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L24" s="13"/>
     </row>
@@ -3561,28 +3563,28 @@
         <v>68</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L25" s="13"/>
     </row>
@@ -3591,28 +3593,28 @@
         <v>71</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>236</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L26" s="13"/>
     </row>
@@ -3621,28 +3623,28 @@
         <v>74</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L27" s="13"/>
     </row>
@@ -3651,28 +3653,28 @@
         <v>77</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L28" s="13"/>
     </row>
@@ -3681,28 +3683,28 @@
         <v>80</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L29" s="13"/>
     </row>
@@ -3711,28 +3713,28 @@
         <v>83</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L30" s="13"/>
     </row>
@@ -3741,28 +3743,28 @@
         <v>86</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L31" s="13"/>
     </row>
@@ -3771,28 +3773,28 @@
         <v>89</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L32" s="13"/>
     </row>
@@ -3801,28 +3803,28 @@
         <v>92</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L33" s="13"/>
     </row>
@@ -3831,28 +3833,28 @@
         <v>95</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L34" s="13"/>
     </row>
@@ -3861,28 +3863,28 @@
         <v>98</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L35" s="13"/>
     </row>
@@ -3891,28 +3893,28 @@
         <v>101</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L36" s="13"/>
     </row>
@@ -3921,28 +3923,28 @@
         <v>104</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L37" s="13"/>
     </row>
@@ -3951,28 +3953,28 @@
         <v>107</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L38" s="13"/>
     </row>
@@ -3981,28 +3983,28 @@
         <v>110</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L39" s="13"/>
     </row>
@@ -4011,28 +4013,28 @@
         <v>113</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L40" s="13"/>
     </row>
@@ -4041,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -4065,7 +4067,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -4083,40 +4085,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4140,20 +4142,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -4164,20 +4166,20 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>190</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -4188,13 +4190,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -4210,13 +4212,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -4232,27 +4234,27 @@
         <v>14</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>288</v>
-      </c>
       <c r="I7" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -4262,18 +4264,18 @@
         <v>17</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -4286,18 +4288,18 @@
         <v>20</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -4310,27 +4312,27 @@
         <v>23</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>291</v>
-      </c>
       <c r="I10" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -4340,13 +4342,13 @@
         <v>26</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4362,13 +4364,13 @@
         <v>29</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4384,13 +4386,13 @@
         <v>32</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -4406,18 +4408,18 @@
         <v>35</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -4430,18 +4432,18 @@
         <v>38</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -4454,18 +4456,18 @@
         <v>41</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -4478,18 +4480,18 @@
         <v>44</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -4502,18 +4504,18 @@
         <v>47</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -4526,27 +4528,27 @@
         <v>50</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>294</v>
-      </c>
       <c r="I19" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -4556,27 +4558,27 @@
         <v>53</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>296</v>
-      </c>
       <c r="I20" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -4586,27 +4588,27 @@
         <v>56</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>298</v>
-      </c>
       <c r="I21" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -4616,27 +4618,27 @@
         <v>59</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>300</v>
-      </c>
       <c r="I22" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -4646,27 +4648,27 @@
         <v>62</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>302</v>
-      </c>
       <c r="I23" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -4676,27 +4678,27 @@
         <v>65</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>304</v>
-      </c>
       <c r="I24" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -4706,30 +4708,30 @@
         <v>68</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="I25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>307</v>
       </c>
       <c r="L25" s="13"/>
     </row>
@@ -4738,30 +4740,30 @@
         <v>71</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>236</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="I26" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="J26" s="13" t="s">
-        <v>168</v>
-      </c>
       <c r="K26" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L26" s="13"/>
     </row>
@@ -4770,27 +4772,27 @@
         <v>74</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>311</v>
-      </c>
       <c r="I27" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -4800,27 +4802,27 @@
         <v>77</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>313</v>
-      </c>
       <c r="I28" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -4830,27 +4832,27 @@
         <v>80</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>315</v>
-      </c>
       <c r="I29" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
@@ -4860,27 +4862,27 @@
         <v>83</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>317</v>
-      </c>
       <c r="I30" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
@@ -4890,30 +4892,30 @@
         <v>86</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>318</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>319</v>
       </c>
       <c r="L31" s="13"/>
     </row>
@@ -4922,30 +4924,30 @@
         <v>89</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L32" s="13"/>
     </row>
@@ -4954,18 +4956,18 @@
         <v>92</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -4978,18 +4980,18 @@
         <v>95</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -5002,18 +5004,18 @@
         <v>98</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -5026,30 +5028,30 @@
         <v>101</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="K36" s="13" t="s">
         <v>322</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>323</v>
       </c>
       <c r="L36" s="13"/>
     </row>
@@ -5058,27 +5060,27 @@
         <v>104</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="I37" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
@@ -5088,27 +5090,27 @@
         <v>107</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>327</v>
-      </c>
       <c r="I38" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -5118,27 +5120,27 @@
         <v>110</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>329</v>
-      </c>
       <c r="I39" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -5148,27 +5150,27 @@
         <v>113</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>331</v>
-      </c>
       <c r="I40" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
@@ -5178,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
